--- a/2345.xlsx
+++ b/2345.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="13110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="371">
   <si>
     <t>アメリカ合衆国</t>
   </si>
@@ -45,12 +45,6 @@
     <t>パリ</t>
   </si>
   <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
     <t>イタリア</t>
   </si>
   <si>
@@ -81,12 +75,6 @@
     <t>ブラジリア</t>
   </si>
   <si>
-    <t>韓国</t>
-  </si>
-  <si>
-    <t>ソウル</t>
-  </si>
-  <si>
     <t>オーストラリア</t>
   </si>
   <si>
@@ -168,9 +156,6 @@
     <t>モロッコ</t>
   </si>
   <si>
-    <t>ラバト</t>
-  </si>
-  <si>
     <t>スウェーデン</t>
   </si>
   <si>
@@ -276,9 +261,6 @@
     <t>エチオピア</t>
   </si>
   <si>
-    <t>アジスアベバ</t>
-  </si>
-  <si>
     <t>アイルランド</t>
   </si>
   <si>
@@ -315,9 +297,6 @@
     <t>ハバナ</t>
   </si>
   <si>
-    <t>ノースマケドニア</t>
-  </si>
-  <si>
     <t>スコピエ</t>
   </si>
   <si>
@@ -363,12 +342,6 @@
     <t>ナイロビ</t>
   </si>
   <si>
-    <t>ニジェール</t>
-  </si>
-  <si>
-    <t>ニアメ</t>
-  </si>
-  <si>
     <t>タンザニア</t>
   </si>
   <si>
@@ -381,12 +354,6 @@
     <t>カンパラ</t>
   </si>
   <si>
-    <t>コンゴ民主共和国</t>
-  </si>
-  <si>
-    <t>キンシャサ</t>
-  </si>
-  <si>
     <t>エクアドル</t>
   </si>
   <si>
@@ -462,9 +429,6 @@
     <t>ベリーズ</t>
   </si>
   <si>
-    <t>ベリーズシティ</t>
-  </si>
-  <si>
     <t>ベナン</t>
   </si>
   <si>
@@ -486,9 +450,6 @@
     <t>ボスニア・ヘルツェゴビナ</t>
   </si>
   <si>
-    <t>サラエボ</t>
-  </si>
-  <si>
     <t>ボツワナ</t>
   </si>
   <si>
@@ -538,9 +499,6 @@
   </si>
   <si>
     <t>チャド</t>
-  </si>
-  <si>
-    <t>ンジャメナ</t>
   </si>
   <si>
     <t>コロンビア</t>
@@ -599,6 +557,597 @@
       <t>ケイド</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベルモパン</t>
+  </si>
+  <si>
+    <t>サラエヴォ</t>
+  </si>
+  <si>
+    <t>ジャマイナ</t>
+  </si>
+  <si>
+    <t>キプロス</t>
+  </si>
+  <si>
+    <t>ニコシア</t>
+  </si>
+  <si>
+    <t>チェコ</t>
+  </si>
+  <si>
+    <t>プラハ</t>
+  </si>
+  <si>
+    <t>デンマーク</t>
+  </si>
+  <si>
+    <t>コペンハーゲン</t>
+  </si>
+  <si>
+    <t>ジブチ</t>
+  </si>
+  <si>
+    <t>ドミニカ</t>
+  </si>
+  <si>
+    <t>サントドミンゴ</t>
+  </si>
+  <si>
+    <t>ローズオー</t>
+  </si>
+  <si>
+    <t>エルサルバドル</t>
+  </si>
+  <si>
+    <t>サンサルバドル</t>
+  </si>
+  <si>
+    <t>赤道ギニア</t>
+  </si>
+  <si>
+    <t>マラボ</t>
+  </si>
+  <si>
+    <t>エリトリア</t>
+  </si>
+  <si>
+    <t>アスマラ</t>
+  </si>
+  <si>
+    <t>エストニア</t>
+  </si>
+  <si>
+    <t>タリン</t>
+  </si>
+  <si>
+    <t>アディスアベバ</t>
+  </si>
+  <si>
+    <t>フィジー</t>
+  </si>
+  <si>
+    <t>スバ</t>
+  </si>
+  <si>
+    <t>ガボン</t>
+  </si>
+  <si>
+    <t>リーブルビル</t>
+  </si>
+  <si>
+    <t>ガンビア</t>
+  </si>
+  <si>
+    <t>バンジュール</t>
+  </si>
+  <si>
+    <t>ジョージア</t>
+  </si>
+  <si>
+    <t>トビリシ</t>
+  </si>
+  <si>
+    <t>ガーナ</t>
+  </si>
+  <si>
+    <t>アクラ</t>
+  </si>
+  <si>
+    <t>グレナダ</t>
+  </si>
+  <si>
+    <t>セントジョージズ</t>
+  </si>
+  <si>
+    <t>グアテマラ</t>
+  </si>
+  <si>
+    <t>グアテマラシティ</t>
+  </si>
+  <si>
+    <t>ギニア</t>
+  </si>
+  <si>
+    <t>コナクリ</t>
+  </si>
+  <si>
+    <t>ギニアビサウ</t>
+  </si>
+  <si>
+    <t>ビサウ</t>
+  </si>
+  <si>
+    <t>ガイアナ</t>
+  </si>
+  <si>
+    <t>ジョージタウン</t>
+  </si>
+  <si>
+    <t>ハイチ</t>
+  </si>
+  <si>
+    <t>ポルトープランス</t>
+  </si>
+  <si>
+    <t>ホンジュラス</t>
+  </si>
+  <si>
+    <t>テグシガルパ</t>
+  </si>
+  <si>
+    <t>アイスランド</t>
+  </si>
+  <si>
+    <t>レイキャヴィク</t>
+  </si>
+  <si>
+    <t>ジャマイカ</t>
+  </si>
+  <si>
+    <t>キングストン</t>
+  </si>
+  <si>
+    <t>ヨルダン</t>
+  </si>
+  <si>
+    <t>アンマン</t>
+  </si>
+  <si>
+    <t>キリバス</t>
+  </si>
+  <si>
+    <t>タラワ</t>
+  </si>
+  <si>
+    <t>コソボ</t>
+  </si>
+  <si>
+    <t>プリシュティナ</t>
+  </si>
+  <si>
+    <t>クウェート</t>
+  </si>
+  <si>
+    <t>キルギス</t>
+  </si>
+  <si>
+    <t>ビシュケク</t>
+  </si>
+  <si>
+    <t>ラオス</t>
+  </si>
+  <si>
+    <t>ビエンチャン</t>
+  </si>
+  <si>
+    <t>ラトビア</t>
+  </si>
+  <si>
+    <t>リガ</t>
+  </si>
+  <si>
+    <t>レバノン</t>
+  </si>
+  <si>
+    <t>ベイルート</t>
+  </si>
+  <si>
+    <t>レソト</t>
+  </si>
+  <si>
+    <t>マセル</t>
+  </si>
+  <si>
+    <t>リベリア</t>
+  </si>
+  <si>
+    <t>モンロビア</t>
+  </si>
+  <si>
+    <t>リビア</t>
+  </si>
+  <si>
+    <t>トリポリ</t>
+  </si>
+  <si>
+    <t>リヒテンシュタイン</t>
+  </si>
+  <si>
+    <t>ヴァドゥーツ</t>
+  </si>
+  <si>
+    <t>リトアニア</t>
+  </si>
+  <si>
+    <t>ビリニュス</t>
+  </si>
+  <si>
+    <t>ルクセンブルク</t>
+  </si>
+  <si>
+    <t>マダガスカル</t>
+  </si>
+  <si>
+    <t>アンタナナリボ</t>
+  </si>
+  <si>
+    <t>マラウイ</t>
+  </si>
+  <si>
+    <t>リロングウェ</t>
+  </si>
+  <si>
+    <t>マレーシア</t>
+  </si>
+  <si>
+    <t>クアラルンプール</t>
+  </si>
+  <si>
+    <t>モルディブ</t>
+  </si>
+  <si>
+    <t>マレ</t>
+  </si>
+  <si>
+    <t>マリ</t>
+  </si>
+  <si>
+    <t>バマコ</t>
+  </si>
+  <si>
+    <t>マルタ</t>
+  </si>
+  <si>
+    <t>バレッタ</t>
+  </si>
+  <si>
+    <t>マーシャル諸島</t>
+  </si>
+  <si>
+    <t>マジュロ</t>
+  </si>
+  <si>
+    <t>モーリタニア</t>
+  </si>
+  <si>
+    <t>ヌアクショット</t>
+  </si>
+  <si>
+    <t>モーリシャス</t>
+  </si>
+  <si>
+    <t>ポートルイス</t>
+  </si>
+  <si>
+    <t>ミクロネシア</t>
+  </si>
+  <si>
+    <t>パリキール</t>
+  </si>
+  <si>
+    <t>モルドバ</t>
+  </si>
+  <si>
+    <t>キシナウ</t>
+  </si>
+  <si>
+    <t>モナコ</t>
+  </si>
+  <si>
+    <t>モンテネグロ</t>
+  </si>
+  <si>
+    <t>ポドゴリツァ</t>
+  </si>
+  <si>
+    <t>ラバット</t>
+  </si>
+  <si>
+    <t>ミャンマー</t>
+  </si>
+  <si>
+    <t>ネピドー</t>
+  </si>
+  <si>
+    <t>ナミビア</t>
+  </si>
+  <si>
+    <t>ウィントフック</t>
+  </si>
+  <si>
+    <t>ナウル</t>
+  </si>
+  <si>
+    <t>ヤレン</t>
+  </si>
+  <si>
+    <t>ネパール</t>
+  </si>
+  <si>
+    <t>カトマンズ</t>
+  </si>
+  <si>
+    <t>ニカラグア</t>
+  </si>
+  <si>
+    <t>マナグア</t>
+  </si>
+  <si>
+    <t>北マケドニア</t>
+  </si>
+  <si>
+    <t>オマーン</t>
+  </si>
+  <si>
+    <t>マスカット</t>
+  </si>
+  <si>
+    <t>パラオ</t>
+  </si>
+  <si>
+    <t>メレケウオク</t>
+  </si>
+  <si>
+    <t>パナマ</t>
+  </si>
+  <si>
+    <t>パナマシティ</t>
+  </si>
+  <si>
+    <t>パプアニューギニア</t>
+  </si>
+  <si>
+    <t>ポートモレスビー</t>
+  </si>
+  <si>
+    <t>パラグアイ</t>
+  </si>
+  <si>
+    <t>アスンシオン</t>
+  </si>
+  <si>
+    <t>ルワンダ</t>
+  </si>
+  <si>
+    <t>キガリ</t>
+  </si>
+  <si>
+    <t>サンキット・ネービス</t>
+  </si>
+  <si>
+    <t>バセテール</t>
+  </si>
+  <si>
+    <t>セントルシア</t>
+  </si>
+  <si>
+    <t>カストリーズ</t>
+  </si>
+  <si>
+    <t>セントビンセントおよびグレナディーン諸島</t>
+  </si>
+  <si>
+    <t>キングスタウン</t>
+  </si>
+  <si>
+    <t>サモア</t>
+  </si>
+  <si>
+    <t>アピア</t>
+  </si>
+  <si>
+    <t>サンマリノ</t>
+  </si>
+  <si>
+    <t>サントメ・プリンシペ</t>
+  </si>
+  <si>
+    <t>サントメ</t>
+  </si>
+  <si>
+    <t>セネガル</t>
+  </si>
+  <si>
+    <t>ダカール</t>
+  </si>
+  <si>
+    <t>セルビア</t>
+  </si>
+  <si>
+    <t>ベオグラード</t>
+  </si>
+  <si>
+    <t>セイシェル</t>
+  </si>
+  <si>
+    <t>ビクトリア</t>
+  </si>
+  <si>
+    <t>シエラレオネ</t>
+  </si>
+  <si>
+    <t>フリータウン</t>
+  </si>
+  <si>
+    <t>シンガポール</t>
+  </si>
+  <si>
+    <t>スロバキア</t>
+  </si>
+  <si>
+    <t>ブラチスラヴァ</t>
+  </si>
+  <si>
+    <t>スロベニア</t>
+  </si>
+  <si>
+    <t>リュブリャナ</t>
+  </si>
+  <si>
+    <t>ソロモン諸島</t>
+  </si>
+  <si>
+    <t>ホニアラ</t>
+  </si>
+  <si>
+    <t>ソマリア</t>
+  </si>
+  <si>
+    <t>モガディシュ</t>
+  </si>
+  <si>
+    <t>南スーダン</t>
+  </si>
+  <si>
+    <t>ジュバ</t>
+  </si>
+  <si>
+    <t>スリランカ</t>
+  </si>
+  <si>
+    <t>スリジャヤワルダナプラコッテ</t>
+  </si>
+  <si>
+    <t>スーダン</t>
+  </si>
+  <si>
+    <t>ハルツーム</t>
+  </si>
+  <si>
+    <t>スリナム</t>
+  </si>
+  <si>
+    <t>パラマリボ</t>
+  </si>
+  <si>
+    <t>シリア</t>
+  </si>
+  <si>
+    <t>ダマスカス</t>
+  </si>
+  <si>
+    <t>タジキスタン</t>
+  </si>
+  <si>
+    <t>ドゥシャンベ</t>
+  </si>
+  <si>
+    <t>東ティモール</t>
+  </si>
+  <si>
+    <t>ディリ</t>
+  </si>
+  <si>
+    <t>トーゴ</t>
+  </si>
+  <si>
+    <t>ロメ</t>
+  </si>
+  <si>
+    <t>トンガ</t>
+  </si>
+  <si>
+    <t>ヌクアロファ</t>
+  </si>
+  <si>
+    <t>トリニダード・トバゴ</t>
+  </si>
+  <si>
+    <t>ポートオブスペイン</t>
+  </si>
+  <si>
+    <t>チュニジア</t>
+  </si>
+  <si>
+    <t>チュニス</t>
+  </si>
+  <si>
+    <t>トルコ</t>
+  </si>
+  <si>
+    <t>アンカラ</t>
+  </si>
+  <si>
+    <t>トルクメニスタン</t>
+  </si>
+  <si>
+    <t>アシガバート</t>
+  </si>
+  <si>
+    <t>ツバル</t>
+  </si>
+  <si>
+    <t>フナフティ</t>
+  </si>
+  <si>
+    <t>アラブ首長国連邦</t>
+  </si>
+  <si>
+    <t>アブダビ</t>
+  </si>
+  <si>
+    <t>ウルグアイ</t>
+  </si>
+  <si>
+    <t>モンテビデオ</t>
+  </si>
+  <si>
+    <t>ウズベキスタン</t>
+  </si>
+  <si>
+    <t>タシケント</t>
+  </si>
+  <si>
+    <t>バヌアツ</t>
+  </si>
+  <si>
+    <t>ポートビラ</t>
+  </si>
+  <si>
+    <t>ベネズエラ</t>
+  </si>
+  <si>
+    <t>カラカス</t>
+  </si>
+  <si>
+    <t>イエメン</t>
+  </si>
+  <si>
+    <t>サヌア</t>
+  </si>
+  <si>
+    <t>ザンビア</t>
+  </si>
+  <si>
+    <t>ルサカ</t>
+  </si>
+  <si>
+    <t>ジンバブエ</t>
+  </si>
+  <si>
+    <t>ハラレ</t>
   </si>
 </sst>
 </file>
@@ -932,1426 +1481,2644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1">
-        <v>38.8977</v>
+        <v>34.555300000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-77.036500000000004</v>
+        <v>69.207499999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1">
-        <v>35.689500000000002</v>
+        <v>41.327500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>139.6917</v>
+        <v>19.8187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1">
-        <v>51.507399999999997</v>
+        <v>36.737200000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.1278</v>
+        <v>3.0868000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1">
-        <v>48.8566</v>
+        <v>42.506300000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>2.3521999999999998</v>
+        <v>1.5218</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1">
-        <v>39.904200000000003</v>
+        <v>-8.8391000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>116.4074</v>
+        <v>13.289400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1">
-        <v>41.902799999999999</v>
+        <v>17.127400000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4964</v>
+        <v>-61.846800000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
-        <v>52.52</v>
+        <v>-34.603700000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>13.404999999999999</v>
+        <v>-58.381599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1">
-        <v>28.613900000000001</v>
+        <v>40.187199999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>77.209000000000003</v>
+        <v>44.5152</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>45.421500000000002</v>
+        <v>-35.280900000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-75.691900000000004</v>
+        <v>149.13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1">
-        <v>-15.826700000000001</v>
+        <v>48.208199999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-47.921799999999998</v>
+        <v>16.373799999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1">
-        <v>37.566499999999998</v>
+        <v>40.409300000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>126.97799999999999</v>
+        <v>49.867100000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1">
-        <v>-35.280900000000003</v>
+        <v>25.034300000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>149.13</v>
+        <v>-77.396299999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1">
-        <v>55.755800000000001</v>
+        <v>26.2285</v>
       </c>
       <c r="D14" s="1">
-        <v>37.617600000000003</v>
+        <v>50.585999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1">
-        <v>19.432600000000001</v>
+        <v>23.810300000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-99.133200000000002</v>
+        <v>90.412499999999994</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1">
-        <v>30.0444</v>
+        <v>13.113200000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>31.235700000000001</v>
+        <v>-59.598799999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="C17" s="1">
-        <v>24.7136</v>
+        <v>53.904499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>46.6753</v>
+        <v>27.561499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1">
-        <v>40.416800000000002</v>
+        <v>50.850299999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-3.7038000000000002</v>
+        <v>4.3517000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="C19" s="1">
-        <v>9.0764999999999993</v>
+        <v>17.253399999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>7.3986000000000001</v>
+        <v>-88.771299999999997</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1">
-        <v>-25.745999999999999</v>
+        <v>6.5244</v>
       </c>
       <c r="D20" s="1">
-        <v>28.187100000000001</v>
+        <v>2.4396</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1">
-        <v>-6.2088000000000001</v>
+        <v>27.514199999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>106.8456</v>
+        <v>90.433599999999998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1">
-        <v>-34.603700000000003</v>
+        <v>-19.019600000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-58.381599999999999</v>
+        <v>-65.261099999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="C23" s="1">
-        <v>25.285399999999999</v>
+        <v>43.856299999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>51.530999999999999</v>
+        <v>18.4131</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1">
-        <v>11.5564</v>
+        <v>-24.6282</v>
       </c>
       <c r="D24" s="1">
-        <v>104.9282</v>
+        <v>25.923100000000002</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1">
-        <v>-33.448900000000002</v>
+        <v>-15.7835</v>
       </c>
       <c r="D25" s="1">
-        <v>-70.669300000000007</v>
+        <v>-47.882800000000003</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1">
-        <v>33.971600000000002</v>
+        <v>4.9031000000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-6.8498000000000001</v>
+        <v>114.94029999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C27" s="1">
-        <v>59.329300000000003</v>
+        <v>42.697699999999998</v>
       </c>
       <c r="D27" s="1">
-        <v>18.0686</v>
+        <v>23.321899999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C28" s="1">
-        <v>21.028500000000001</v>
+        <v>12.3714</v>
       </c>
       <c r="D28" s="1">
-        <v>105.85420000000001</v>
+        <v>-1.5197000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="C29" s="1">
-        <v>59.913899999999998</v>
+        <v>-3.3792</v>
       </c>
       <c r="D29" s="1">
-        <v>10.7522</v>
+        <v>29.3644</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="C30" s="1">
-        <v>52.229700000000001</v>
+        <v>14.9215</v>
       </c>
       <c r="D30" s="1">
-        <v>21.0122</v>
+        <v>-23.508700000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
-        <v>35.6892</v>
+        <v>11.5564</v>
       </c>
       <c r="D31" s="1">
-        <v>51.389000000000003</v>
+        <v>104.9282</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1">
-        <v>47.886400000000002</v>
+        <v>3.8479999999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>106.9057</v>
+        <v>11.5021</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
-        <v>-41.286499999999997</v>
+        <v>45.421500000000002</v>
       </c>
       <c r="D33" s="1">
-        <v>174.77619999999999</v>
+        <v>-75.691000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="C34" s="1">
-        <v>13.7563</v>
+        <v>4.3947000000000003</v>
       </c>
       <c r="D34" s="1">
-        <v>100.5018</v>
+        <v>18.558199999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="C35" s="1">
-        <v>46.948</v>
+        <v>12.104799999999999</v>
       </c>
       <c r="D35" s="1">
-        <v>7.4474</v>
+        <v>15.044499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1">
-        <v>48.208199999999998</v>
+        <v>-33.437800000000003</v>
       </c>
       <c r="D36" s="1">
-        <v>16.373799999999999</v>
+        <v>-70.650400000000005</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="C37" s="1">
-        <v>50.850299999999997</v>
+        <v>4.7110000000000003</v>
       </c>
       <c r="D37" s="1">
-        <v>4.3517000000000001</v>
+        <v>-74.072100000000006</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="C38" s="1">
-        <v>38.722299999999997</v>
+        <v>-11.7172</v>
       </c>
       <c r="D38" s="1">
-        <v>-9.1393000000000004</v>
+        <v>43.247900000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1">
-        <v>37.983800000000002</v>
+        <v>-4.2633999999999999</v>
       </c>
       <c r="D39" s="1">
-        <v>23.727499999999999</v>
+        <v>15.242900000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="C40" s="1">
-        <v>36.737200000000001</v>
+        <v>9.9346999999999994</v>
       </c>
       <c r="D40" s="1">
-        <v>3.0868000000000002</v>
+        <v>-84.087500000000006</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="C41" s="1">
-        <v>44.4268</v>
+        <v>45.814999999999998</v>
       </c>
       <c r="D41" s="1">
-        <v>26.102499999999999</v>
+        <v>15.9819</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
-        <v>52.367600000000003</v>
+        <v>23.113600000000002</v>
       </c>
       <c r="D42" s="1">
-        <v>4.9040999999999997</v>
+        <v>-82.366600000000005</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="C43" s="1">
-        <v>31.7683</v>
+        <v>35.1676</v>
       </c>
       <c r="D43" s="1">
-        <v>35.213700000000003</v>
+        <v>33.373600000000003</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="C44" s="1">
-        <v>9.0329999999999995</v>
+        <v>50.075499999999998</v>
       </c>
       <c r="D44" s="1">
-        <v>38.74</v>
+        <v>14.437799999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="C45" s="1">
-        <v>53.349800000000002</v>
+        <v>55.676099999999998</v>
       </c>
       <c r="D45" s="1">
-        <v>-6.2603</v>
+        <v>12.568300000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="C46" s="1">
-        <v>47.497900000000001</v>
+        <v>11.609500000000001</v>
       </c>
       <c r="D46" s="1">
-        <v>19.040199999999999</v>
+        <v>43.1479</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C47" s="1">
-        <v>60.169499999999999</v>
+        <v>18.4861</v>
       </c>
       <c r="D47" s="1">
-        <v>24.935400000000001</v>
+        <v>-69.931200000000004</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="C48" s="1">
-        <v>33.315199999999997</v>
+        <v>15.297599999999999</v>
       </c>
       <c r="D48" s="1">
-        <v>44.366100000000003</v>
+        <v>-61.39</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1">
-        <v>-12.0464</v>
+        <v>-0.1807</v>
       </c>
       <c r="D49" s="1">
-        <v>-77.0428</v>
+        <v>-78.467799999999997</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1">
-        <v>23.113600000000002</v>
+        <v>30.0444</v>
       </c>
       <c r="D50" s="1">
-        <v>-82.366600000000005</v>
+        <v>31.235700000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="C51" s="1">
-        <v>42.003500000000003</v>
+        <v>13.6989</v>
       </c>
       <c r="D51" s="1">
-        <v>21.427900000000001</v>
+        <v>-89.191400000000002</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="C52" s="1">
-        <v>51.169400000000003</v>
+        <v>3.7509000000000001</v>
       </c>
       <c r="D52" s="1">
-        <v>71.449100000000001</v>
+        <v>8.7814999999999994</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="C53" s="1">
-        <v>-12.0464</v>
+        <v>15.322900000000001</v>
       </c>
       <c r="D53" s="1">
-        <v>-77.0428</v>
+        <v>38.924999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="C54" s="1">
-        <v>50.450099999999999</v>
+        <v>59.436999999999998</v>
       </c>
       <c r="D54" s="1">
-        <v>30.523399999999999</v>
+        <v>24.753599999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="C55" s="1">
-        <v>21.028500000000001</v>
+        <v>9.0079999999999991</v>
       </c>
       <c r="D55" s="1">
-        <v>105.85420000000001</v>
+        <v>38.761299999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="C56" s="1">
-        <v>33.684399999999997</v>
+        <v>-18.1248</v>
       </c>
       <c r="D56" s="1">
-        <v>73.047899999999998</v>
+        <v>178.45009999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C57" s="1">
-        <v>14.599500000000001</v>
+        <v>60.169499999999999</v>
       </c>
       <c r="D57" s="1">
-        <v>120.9842</v>
+        <v>24.935400000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1">
-        <v>13.7563</v>
+        <v>48.8566</v>
       </c>
       <c r="D58" s="1">
-        <v>100.5018</v>
+        <v>2.3521999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="C59" s="1">
-        <v>23.810300000000002</v>
+        <v>-0.22800000000000001</v>
       </c>
       <c r="D59" s="1">
-        <v>90.412499999999994</v>
+        <v>15.8277</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="C60" s="1">
-        <v>-25.966699999999999</v>
+        <v>13.4549</v>
       </c>
       <c r="D60" s="1">
-        <v>32.583300000000001</v>
+        <v>-16.579000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="C61" s="1">
-        <v>-1.2864</v>
+        <v>41.7151</v>
       </c>
       <c r="D61" s="1">
-        <v>36.8172</v>
+        <v>44.827100000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="C62" s="1">
-        <v>13.512700000000001</v>
+        <v>52.52</v>
       </c>
       <c r="D62" s="1">
-        <v>2.1120999999999999</v>
+        <v>13.404999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="C63" s="1">
-        <v>14.599500000000001</v>
+        <v>5.6036999999999999</v>
       </c>
       <c r="D63" s="1">
-        <v>120.9842</v>
+        <v>-0.187</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1">
-        <v>-6.1628999999999996</v>
+        <v>37.983800000000002</v>
       </c>
       <c r="D64" s="1">
-        <v>35.751600000000003</v>
+        <v>23.727499999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="C65" s="1">
-        <v>33.684399999999997</v>
+        <v>12.0579</v>
       </c>
       <c r="D65" s="1">
-        <v>73.047899999999998</v>
+        <v>-61.7485</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="C66" s="1">
-        <v>0.34760000000000002</v>
+        <v>14.6349</v>
       </c>
       <c r="D66" s="1">
-        <v>32.582500000000003</v>
+        <v>-90.506900000000002</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="C67" s="1">
-        <v>23.810300000000002</v>
+        <v>9.6411999999999995</v>
       </c>
       <c r="D67" s="1">
-        <v>90.412499999999994</v>
+        <v>-13.5784</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="C68" s="1">
-        <v>-4.4419000000000004</v>
+        <v>11.864000000000001</v>
       </c>
       <c r="D68" s="1">
-        <v>15.266299999999999</v>
+        <v>-15.5984</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="C69" s="1">
-        <v>0.1807</v>
+        <v>6.8013000000000003</v>
       </c>
       <c r="D69" s="1">
-        <v>-78.467799999999997</v>
+        <v>-58.155099999999997</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="C70" s="1">
-        <v>34.555300000000003</v>
+        <v>18.539200000000001</v>
       </c>
       <c r="D70" s="1">
-        <v>69.207499999999996</v>
+        <v>-72.334999999999994</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="C71" s="1">
-        <v>41.327500000000001</v>
+        <v>14.0723</v>
       </c>
       <c r="D71" s="1">
-        <v>19.8187</v>
+        <v>-87.192099999999996</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C72" s="1">
-        <v>42.506300000000003</v>
+        <v>47.497900000000001</v>
       </c>
       <c r="D72" s="1">
-        <v>1.5218</v>
+        <v>19.040199999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="C73" s="1">
-        <v>-8.8391000000000002</v>
+        <v>64.146600000000007</v>
       </c>
       <c r="D73" s="1">
-        <v>13.289400000000001</v>
+        <v>-21.942599999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="C74" s="1">
-        <v>17.127400000000002</v>
+        <v>28.613900000000001</v>
       </c>
       <c r="D74" s="1">
-        <v>-61.846800000000002</v>
+        <v>77.209000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="C75" s="1">
-        <v>40.187199999999997</v>
+        <v>-6.2088000000000001</v>
       </c>
       <c r="D75" s="1">
-        <v>44.5152</v>
+        <v>106.8456</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="C76" s="1">
-        <v>40.409300000000002</v>
+        <v>35.6892</v>
       </c>
       <c r="D76" s="1">
-        <v>49.867100000000001</v>
+        <v>51.389000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C77" s="1">
-        <v>25.034300000000002</v>
+        <v>33.315199999999997</v>
       </c>
       <c r="D77" s="1">
-        <v>-77.396299999999997</v>
+        <v>44.366100000000003</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C78" s="1">
-        <v>26.173500000000001</v>
+        <v>53.349800000000002</v>
       </c>
       <c r="D78" s="1">
-        <v>50.535400000000003</v>
+        <v>-6.2603</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1">
-        <v>13.113200000000001</v>
+        <v>31.7683</v>
       </c>
       <c r="D79" s="1">
-        <v>-59.598799999999997</v>
+        <v>35.213700000000003</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="C80" s="1">
-        <v>53.904499999999999</v>
+        <v>41.902799999999999</v>
       </c>
       <c r="D80" s="1">
-        <v>27.561499999999999</v>
+        <v>12.4964</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="C81" s="1">
-        <v>17.251000000000001</v>
+        <v>18.017900000000001</v>
       </c>
       <c r="D81" s="1">
-        <v>-88.759</v>
+        <v>-76.809799999999996</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1">
-        <v>6.5244</v>
+        <v>35.689500000000002</v>
       </c>
       <c r="D82" s="1">
-        <v>2.4546999999999999</v>
+        <v>139.6917</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="C83" s="1">
-        <v>27.514199999999999</v>
+        <v>31.945399999999999</v>
       </c>
       <c r="D83" s="1">
-        <v>90.433599999999998</v>
+        <v>35.928400000000003</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="C84" s="1">
-        <v>-19.042100000000001</v>
+        <v>51.169400000000003</v>
       </c>
       <c r="D84" s="1">
-        <v>-65.255899999999997</v>
+        <v>71.449100000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C85" s="1">
-        <v>43.856299999999997</v>
+        <v>-1.2864</v>
       </c>
       <c r="D85" s="1">
-        <v>18.4131</v>
+        <v>36.8172</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="C86" s="1">
-        <v>-24.654399999999999</v>
+        <v>1.3291999999999999</v>
       </c>
       <c r="D86" s="1">
-        <v>25.9087</v>
+        <v>172.97790000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="C87" s="1">
-        <v>4.9031000000000002</v>
+        <v>42.6629</v>
       </c>
       <c r="D87" s="1">
-        <v>114.9408</v>
+        <v>21.165500000000002</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="C88" s="1">
-        <v>42.697699999999998</v>
+        <v>29.375900000000001</v>
       </c>
       <c r="D88" s="1">
-        <v>23.321899999999999</v>
+        <v>47.977400000000003</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="C89" s="1">
-        <v>12.3714</v>
+        <v>42.874600000000001</v>
       </c>
       <c r="D89" s="1">
-        <v>-1.5197000000000001</v>
+        <v>74.569800000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="C90" s="1">
-        <v>-3.3614000000000002</v>
+        <v>17.9757</v>
       </c>
       <c r="D90" s="1">
-        <v>29.3599</v>
+        <v>102.6331</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="C91" s="1">
-        <v>14.9215</v>
+        <v>56.949599999999997</v>
       </c>
       <c r="D91" s="1">
-        <v>-23.508700000000001</v>
+        <v>24.1052</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="C92" s="1">
-        <v>11.5564</v>
+        <v>33.888599999999997</v>
       </c>
       <c r="D92" s="1">
-        <v>104.9282</v>
+        <v>35.4955</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="C93" s="1">
-        <v>3.8479999999999999</v>
+        <v>-29.316500000000001</v>
       </c>
       <c r="D93" s="1">
-        <v>11.5021</v>
+        <v>27.483799999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="C94" s="1">
-        <v>4.3947000000000003</v>
+        <v>6.2907000000000002</v>
       </c>
       <c r="D94" s="1">
-        <v>18.558199999999999</v>
+        <v>-10.7605</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="C95" s="1">
-        <v>12.1348</v>
+        <v>32.8872</v>
       </c>
       <c r="D95" s="1">
-        <v>15.0557</v>
+        <v>13.1913</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>47</v>
+        <v>246</v>
       </c>
       <c r="C96" s="1">
-        <v>-33.437199999999997</v>
+        <v>47.140999999999998</v>
       </c>
       <c r="D96" s="1">
-        <v>-70.650599999999997</v>
+        <v>9.5208999999999993</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="C97" s="1">
-        <v>4.7110000000000003</v>
+        <v>54.687199999999997</v>
       </c>
       <c r="D97" s="1">
-        <v>-74.072100000000006</v>
+        <v>25.279699999999998</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="C98" s="1">
-        <v>-11.702199999999999</v>
+        <v>49.815300000000001</v>
       </c>
       <c r="D98" s="1">
-        <v>43.255099999999999</v>
+        <v>6.1295999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="C99" s="1">
-        <v>-4.2633999999999999</v>
+        <v>-18.879200000000001</v>
       </c>
       <c r="D99" s="1">
-        <v>15.242900000000001</v>
+        <v>47.507899999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C100" s="1">
-        <v>9.9346999999999994</v>
+        <v>-13.963200000000001</v>
       </c>
       <c r="D100" s="1">
-        <v>-84.087500000000006</v>
+        <v>33.774099999999997</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="C101" s="1">
-        <v>45.814999999999998</v>
+        <v>3.1389999999999998</v>
       </c>
       <c r="D101" s="1">
-        <v>15.9819</v>
+        <v>101.68689999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102">
+        <v>4.1755000000000004</v>
+      </c>
+      <c r="D102">
+        <v>73.509299999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>258</v>
+      </c>
+      <c r="B103" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103">
+        <v>12.639200000000001</v>
+      </c>
+      <c r="D103">
+        <v>-8.0029000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>260</v>
+      </c>
+      <c r="B104" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104">
+        <v>35.898899999999998</v>
+      </c>
+      <c r="D104">
+        <v>14.5146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105">
+        <v>7.1163999999999996</v>
+      </c>
+      <c r="D105">
+        <v>171.185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>264</v>
+      </c>
+      <c r="B106" t="s">
+        <v>265</v>
+      </c>
+      <c r="C106">
+        <v>18.0791</v>
+      </c>
+      <c r="D106">
+        <v>-15.9785</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107">
+        <v>-20.165299999999998</v>
+      </c>
+      <c r="D107">
+        <v>57.489600000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108">
+        <v>19.432600000000001</v>
+      </c>
+      <c r="D108">
+        <v>-99.133200000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>268</v>
+      </c>
+      <c r="B109" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109">
+        <v>7.4256000000000002</v>
+      </c>
+      <c r="D109">
+        <v>151.86080000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110">
+        <v>47.0105</v>
+      </c>
+      <c r="D110">
+        <v>28.863800000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>272</v>
+      </c>
+      <c r="B111" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111">
+        <v>43.738399999999999</v>
+      </c>
+      <c r="D111">
+        <v>7.4245999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112">
+        <v>47.886400000000002</v>
+      </c>
+      <c r="D112">
+        <v>106.9057</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113">
+        <v>42.430399999999999</v>
+      </c>
+      <c r="D113">
+        <v>19.259399999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114">
+        <v>33.971600000000002</v>
+      </c>
+      <c r="D114">
+        <v>-6.8498000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>103</v>
+      </c>
+      <c r="B115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115">
+        <v>-25.9664</v>
+      </c>
+      <c r="D115">
+        <v>32.5732</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116">
+        <v>19.763300000000001</v>
+      </c>
+      <c r="D116">
+        <v>96.078500000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>278</v>
+      </c>
+      <c r="B117" t="s">
+        <v>279</v>
+      </c>
+      <c r="C117">
+        <v>-22.559699999999999</v>
+      </c>
+      <c r="D117">
+        <v>17.083200000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>280</v>
+      </c>
+      <c r="B118" t="s">
+        <v>281</v>
+      </c>
+      <c r="C118">
+        <v>-0.54769999999999996</v>
+      </c>
+      <c r="D118">
+        <v>166.92089999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>282</v>
+      </c>
+      <c r="B119" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119">
+        <v>27.717199999999998</v>
+      </c>
+      <c r="D119">
+        <v>85.323999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>75</v>
+      </c>
+      <c r="B120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120">
+        <v>52.367600000000003</v>
+      </c>
+      <c r="D120">
+        <v>4.9040999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121">
+        <v>-41.286499999999997</v>
+      </c>
+      <c r="D121">
+        <v>174.77619999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>284</v>
+      </c>
+      <c r="B122" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122">
+        <v>12.1149</v>
+      </c>
+      <c r="D122">
+        <v>-86.236199999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123">
+        <v>9.0579000000000001</v>
+      </c>
+      <c r="D123">
+        <v>7.4950999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>286</v>
+      </c>
+      <c r="B124" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124">
+        <v>41.997300000000003</v>
+      </c>
+      <c r="D124">
+        <v>21.428000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" t="s">
+        <v>50</v>
+      </c>
+      <c r="C125">
+        <v>59.913899999999998</v>
+      </c>
+      <c r="D125">
+        <v>10.7522</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>287</v>
+      </c>
+      <c r="B126" t="s">
+        <v>288</v>
+      </c>
+      <c r="C126">
+        <v>23.61</v>
+      </c>
+      <c r="D126">
+        <v>58.594799999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127">
+        <v>33.684399999999997</v>
+      </c>
+      <c r="D127">
+        <v>73.047899999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>289</v>
+      </c>
+      <c r="B128" t="s">
+        <v>290</v>
+      </c>
+      <c r="C128">
+        <v>7.5002000000000004</v>
+      </c>
+      <c r="D128">
+        <v>134.62479999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>291</v>
+      </c>
+      <c r="B129" t="s">
+        <v>292</v>
+      </c>
+      <c r="C129">
+        <v>8.9824000000000002</v>
+      </c>
+      <c r="D129">
+        <v>-79.519900000000007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C130">
+        <v>-9.4437999999999995</v>
+      </c>
+      <c r="D130">
+        <v>147.18029999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>295</v>
+      </c>
+      <c r="B131" t="s">
+        <v>296</v>
+      </c>
+      <c r="C131">
+        <v>-25.2637</v>
+      </c>
+      <c r="D131">
+        <v>-57.575899999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>88</v>
+      </c>
+      <c r="B132" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132">
+        <v>-12.0464</v>
+      </c>
+      <c r="D132">
+        <v>-77.0428</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>99</v>
+      </c>
+      <c r="B133" t="s">
+        <v>100</v>
+      </c>
+      <c r="C133">
+        <v>14.599500000000001</v>
+      </c>
+      <c r="D133">
+        <v>120.9842</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>51</v>
+      </c>
+      <c r="B134" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134">
+        <v>52.229700000000001</v>
+      </c>
+      <c r="D134">
+        <v>21.0122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135">
+        <v>38.722299999999997</v>
+      </c>
+      <c r="D135">
+        <v>-9.1393000000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>38</v>
+      </c>
+      <c r="B136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136">
+        <v>25.276900000000001</v>
+      </c>
+      <c r="D136">
+        <v>51.5197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>73</v>
+      </c>
+      <c r="B137" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137">
+        <v>44.4268</v>
+      </c>
+      <c r="D137">
+        <v>26.102499999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138">
+        <v>55.755800000000001</v>
+      </c>
+      <c r="D138">
+        <v>37.617600000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>297</v>
+      </c>
+      <c r="B139" t="s">
+        <v>298</v>
+      </c>
+      <c r="C139">
+        <v>-1.9439</v>
+      </c>
+      <c r="D139">
+        <v>30.0595</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>299</v>
+      </c>
+      <c r="B140" t="s">
+        <v>300</v>
+      </c>
+      <c r="C140">
+        <v>17.302600000000002</v>
+      </c>
+      <c r="D140">
+        <v>-62.717700000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" t="s">
+        <v>302</v>
+      </c>
+      <c r="C141">
+        <v>14.0101</v>
+      </c>
+      <c r="D141">
+        <v>-60.987499999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" t="s">
+        <v>304</v>
+      </c>
+      <c r="C142">
+        <v>13.16</v>
+      </c>
+      <c r="D142">
+        <v>-61.223999999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>305</v>
+      </c>
+      <c r="B143" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143">
+        <v>-13.833299999999999</v>
+      </c>
+      <c r="D143">
+        <v>-171.76669999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>307</v>
+      </c>
+      <c r="B144" t="s">
+        <v>307</v>
+      </c>
+      <c r="C144">
+        <v>43.942399999999999</v>
+      </c>
+      <c r="D144">
+        <v>12.457800000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" t="s">
+        <v>309</v>
+      </c>
+      <c r="C145">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="D145">
+        <v>6.6131000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146">
+        <v>24.7136</v>
+      </c>
+      <c r="D146">
+        <v>46.6753</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>310</v>
+      </c>
+      <c r="B147" t="s">
+        <v>311</v>
+      </c>
+      <c r="C147">
+        <v>14.716699999999999</v>
+      </c>
+      <c r="D147">
+        <v>-17.467700000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>312</v>
+      </c>
+      <c r="B148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C148">
+        <v>44.7866</v>
+      </c>
+      <c r="D148">
+        <v>20.448899999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149">
+        <v>-4.6181999999999999</v>
+      </c>
+      <c r="D149">
+        <v>55.454500000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>316</v>
+      </c>
+      <c r="B150" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150">
+        <v>8.4657</v>
+      </c>
+      <c r="D150">
+        <v>-13.2317</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>318</v>
+      </c>
+      <c r="B151" t="s">
+        <v>318</v>
+      </c>
+      <c r="C151">
+        <v>1.3521000000000001</v>
+      </c>
+      <c r="D151">
+        <v>103.8198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>319</v>
+      </c>
+      <c r="B152" t="s">
+        <v>320</v>
+      </c>
+      <c r="C152">
+        <v>48.148600000000002</v>
+      </c>
+      <c r="D152">
+        <v>17.107700000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>321</v>
+      </c>
+      <c r="B153" t="s">
+        <v>322</v>
+      </c>
+      <c r="C153">
+        <v>46.056899999999999</v>
+      </c>
+      <c r="D153">
+        <v>14.505800000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>323</v>
+      </c>
+      <c r="B154" t="s">
+        <v>324</v>
+      </c>
+      <c r="C154">
+        <v>-9.4456000000000007</v>
+      </c>
+      <c r="D154">
+        <v>159.97290000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>325</v>
+      </c>
+      <c r="B155" t="s">
+        <v>326</v>
+      </c>
+      <c r="C155">
+        <v>2.0468999999999999</v>
+      </c>
+      <c r="D155">
+        <v>45.318199999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156">
+        <v>-25.746400000000001</v>
+      </c>
+      <c r="D156">
+        <v>28.188099999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>327</v>
+      </c>
+      <c r="B157" t="s">
+        <v>328</v>
+      </c>
+      <c r="C157">
+        <v>4.8593999999999999</v>
+      </c>
+      <c r="D157">
+        <v>31.571300000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158">
+        <v>40.416800000000002</v>
+      </c>
+      <c r="D158">
+        <v>-3.7038000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>329</v>
+      </c>
+      <c r="B159" t="s">
+        <v>330</v>
+      </c>
+      <c r="C159">
+        <v>6.9271000000000003</v>
+      </c>
+      <c r="D159">
+        <v>79.861199999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>331</v>
+      </c>
+      <c r="B160" t="s">
+        <v>332</v>
+      </c>
+      <c r="C160">
+        <v>15.5007</v>
+      </c>
+      <c r="D160">
+        <v>32.559899999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>333</v>
+      </c>
+      <c r="B161" t="s">
+        <v>334</v>
+      </c>
+      <c r="C161">
+        <v>5.8520000000000003</v>
+      </c>
+      <c r="D161">
+        <v>-55.203800000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" t="s">
+        <v>46</v>
+      </c>
+      <c r="C162">
+        <v>59.329300000000003</v>
+      </c>
+      <c r="D162">
+        <v>18.0686</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>61</v>
+      </c>
+      <c r="B163" t="s">
+        <v>62</v>
+      </c>
+      <c r="C163">
+        <v>46.947899999999997</v>
+      </c>
+      <c r="D163">
+        <v>7.4446000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>335</v>
+      </c>
+      <c r="B164" t="s">
+        <v>336</v>
+      </c>
+      <c r="C164">
+        <v>33.513800000000003</v>
+      </c>
+      <c r="D164">
+        <v>36.276499999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>337</v>
+      </c>
+      <c r="B165" t="s">
+        <v>338</v>
+      </c>
+      <c r="C165">
+        <v>38.573700000000002</v>
+      </c>
+      <c r="D165">
+        <v>68.773799999999994</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B166" t="s">
+        <v>108</v>
+      </c>
+      <c r="C166">
+        <v>-6.1630000000000003</v>
+      </c>
+      <c r="D166">
+        <v>35.751600000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" t="s">
+        <v>60</v>
+      </c>
+      <c r="C167">
+        <v>13.7563</v>
+      </c>
+      <c r="D167">
+        <v>100.5018</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>339</v>
+      </c>
+      <c r="B168" t="s">
+        <v>340</v>
+      </c>
+      <c r="C168">
+        <v>-8.5586000000000002</v>
+      </c>
+      <c r="D168">
+        <v>125.5782</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>341</v>
+      </c>
+      <c r="B169" t="s">
+        <v>342</v>
+      </c>
+      <c r="C169">
+        <v>6.5244</v>
+      </c>
+      <c r="D169">
+        <v>1.2058</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>343</v>
+      </c>
+      <c r="B170" t="s">
+        <v>344</v>
+      </c>
+      <c r="C170">
+        <v>-21.139299999999999</v>
+      </c>
+      <c r="D170">
+        <v>-175.20490000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>345</v>
+      </c>
+      <c r="B171" t="s">
+        <v>346</v>
+      </c>
+      <c r="C171">
+        <v>10.659599999999999</v>
+      </c>
+      <c r="D171">
+        <v>-61.478900000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>347</v>
+      </c>
+      <c r="B172" t="s">
+        <v>348</v>
+      </c>
+      <c r="C172">
+        <v>36.8065</v>
+      </c>
+      <c r="D172">
+        <v>10.1815</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>349</v>
+      </c>
+      <c r="B173" t="s">
+        <v>350</v>
+      </c>
+      <c r="C173">
+        <v>39.933399999999999</v>
+      </c>
+      <c r="D173">
+        <v>32.859699999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>351</v>
+      </c>
+      <c r="B174" t="s">
+        <v>352</v>
+      </c>
+      <c r="C174">
+        <v>37.960099999999997</v>
+      </c>
+      <c r="D174">
+        <v>58.326099999999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>353</v>
+      </c>
+      <c r="B175" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175">
+        <v>-8.5167000000000002</v>
+      </c>
+      <c r="D175">
+        <v>179.2167</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>109</v>
+      </c>
+      <c r="B176" t="s">
+        <v>110</v>
+      </c>
+      <c r="C176">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="D176">
+        <v>32.582500000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>95</v>
+      </c>
+      <c r="B177" t="s">
+        <v>96</v>
+      </c>
+      <c r="C177">
+        <v>50.450099999999999</v>
+      </c>
+      <c r="D177">
+        <v>30.523399999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>355</v>
+      </c>
+      <c r="B178" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178">
+        <v>24.453900000000001</v>
+      </c>
+      <c r="D178">
+        <v>54.377299999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>51.507399999999997</v>
+      </c>
+      <c r="D179">
+        <v>-0.1278</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>38.895099999999999</v>
+      </c>
+      <c r="D180">
+        <v>-77.0364</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181">
+        <v>-34.9011</v>
+      </c>
+      <c r="D181">
+        <v>-56.164499999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182">
+        <v>41.299500000000002</v>
+      </c>
+      <c r="D182">
+        <v>69.240099999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183">
+        <v>-17.7348</v>
+      </c>
+      <c r="D183">
+        <v>168.322</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" t="s">
+        <v>364</v>
+      </c>
+      <c r="C184">
+        <v>10.480600000000001</v>
+      </c>
+      <c r="D184">
+        <v>-66.903599999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>47</v>
+      </c>
+      <c r="B185" t="s">
+        <v>48</v>
+      </c>
+      <c r="C185">
+        <v>21.027799999999999</v>
+      </c>
+      <c r="D185">
+        <v>105.8342</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" t="s">
+        <v>366</v>
+      </c>
+      <c r="C186">
+        <v>15.369400000000001</v>
+      </c>
+      <c r="D186">
+        <v>44.191000000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>367</v>
+      </c>
+      <c r="B187" t="s">
+        <v>368</v>
+      </c>
+      <c r="C187">
+        <v>-15.387499999999999</v>
+      </c>
+      <c r="D187">
+        <v>28.322800000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>369</v>
+      </c>
+      <c r="B188" t="s">
+        <v>370</v>
+      </c>
+      <c r="C188">
+        <v>-17.825199999999999</v>
+      </c>
+      <c r="D188">
+        <v>31.0335</v>
       </c>
     </row>
   </sheetData>
